--- a/06-03-2023/data/output/xlsx/sample_0/category__4.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="152">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,39 +52,63 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
@@ -100,28 +124,139 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
@@ -130,7 +265,31 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
@@ -154,52 +313,49 @@
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__24</t>
@@ -220,223 +376,67 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_equals__0,num_of_equals__1,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_unknowns__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
   </si>
   <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -592,10 +592,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$12</c:f>
+              <c:f>AddsSubs!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -616,16 +616,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$12</c:f>
+              <c:f>AddsSubs!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.1818181818181818</c:v>
                 </c:pt>
@@ -633,18 +657,42 @@
                   <c:v>0.1937046004842615</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1488673139158576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1414141414141414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1139240506329114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.2222222222222222</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.1428571428571428</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.1666666666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -766,30 +814,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.0748663101604278</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.08450704225352113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0684931506849315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08108108108108109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,30 +1006,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.1785356068204614</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1796165489404642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1280148423005566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.142156862745098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1544117647058824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1521739130434783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1296296296296296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,10 +1198,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$22</c:f>
+              <c:f>Decimals!$C$4:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1108,16 +1252,37 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$22</c:f>
+              <c:f>Decimals!$D$4:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.1704180064308682</c:v>
                 </c:pt>
@@ -1125,48 +1290,69 @@
                   <c:v>0.1788617886178862</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1671232876712329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1383399209486166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.155688622754491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1587301587301587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1219512195121951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1290322580645161</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.04347826086956522</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.06666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.1428571428571428</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.1666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>0.1666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1671232876712329</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1288,10 +1474,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$8</c:f>
+              <c:f>Unknowns!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1300,16 +1486,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$8</c:f>
+              <c:f>Unknowns!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.1783567134268537</c:v>
                 </c:pt>
@@ -1317,6 +1527,30 @@
                   <c:v>0.2137628111273792</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1578947368421053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2173913043478261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1438,30 +1672,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1306532663316583</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1019108280254777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06976744186046512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2116,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.3197906041769249</v>
+        <v>0.2939404970742939</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2124,22 +2370,20 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.1488673139158576</v>
       </c>
       <c r="E5" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1727053140096619</v>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2147,213 +2391,215 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.2222222222222222</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="E6" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.2744444444444445</v>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E7" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.2855555555555556</v>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1428571428571428</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="E8" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E9" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E11" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.2461113267865409</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1488673139158576</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.006531795792734189</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1414141414141414</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.004652798239444244</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2361,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2374,7 +2620,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2382,20 +2628,20 @@
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.1139240506329114</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E17" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2403,20 +2649,20 @@
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1153846153846154</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2424,20 +2670,20 @@
         <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2445,20 +2691,20 @@
         <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2466,20 +2712,20 @@
         <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2487,20 +2733,20 @@
         <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1704180064308682</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="E22" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2508,222 +2754,214 @@
         <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1788617886178862</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="E23" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.2883472304762378</v>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E24" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.06666666666666667</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="E25" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.1</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E26" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1428571428571428</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E27" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E28" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E29" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E30" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.5277777777777778</v>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E31" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.5396825396825397</v>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.5396825396825397</v>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2732,456 +2970,446 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.5714285714285714</v>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1671232876712329</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.6428571428571429</v>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5</v>
+        <v>0.1785356068204614</v>
       </c>
       <c r="E36" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1">
-        <v>0.6428571428571429</v>
+        <v>0.3095677940597067</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.5</v>
+        <v>0.1796165489404642</v>
       </c>
       <c r="E37" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G37" s="1">
-        <v>0.6428571428571429</v>
+        <v>0.3096952450921747</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.5</v>
+        <v>0.1280148423005566</v>
       </c>
       <c r="E38" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.6428571428571429</v>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="E39" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="E40" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="E41" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="E42" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="E43" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E44" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.1383399209486166</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E45" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.155688622754491</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1587301587301587</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.1764705882352941</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.1384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.1219512195121951</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="E50" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.1290322580645161</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="E51" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1785356068204614</v>
+        <v>0.08</v>
       </c>
       <c r="E52" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.3095677940597067</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1796165489404642</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="E53" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.3096952450921747</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3194,15 +3422,15 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3215,15 +3443,15 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3236,15 +3464,15 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3257,1031 +3485,1049 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.1280148423005566</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1279069767441861</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.142156862745098</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.1544117647058824</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1521739130434783</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.1296296296296296</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.1704180064308682</v>
       </c>
       <c r="E65" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0748663101604278</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="E66" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>20</v>
+      <c r="F66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.08707849626564373</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.08450704225352113</v>
+        <v>0.1671232876712329</v>
       </c>
       <c r="E67" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="E68" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="E69" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E70" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E71" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E72" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0684931506849315</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E73" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.05555555555555555</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="E74" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.08108108108108109</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E75" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E76" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.1</v>
       </c>
       <c r="E77" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E78" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E79" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.1783567134268537</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E80" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.2137628111273792</v>
+        <v>0.2</v>
       </c>
       <c r="E81" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G81" s="1">
-        <v>0.3178592854864029</v>
+        <v>0.3992025855745913</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E82" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G82" s="1">
-        <v>0.6086956521739131</v>
+        <v>0.4111620915901056</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E83" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>20</v>
+      <c r="F83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.4111620915901056</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E84" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>20</v>
+      <c r="F84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.4429776703852497</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.1578947368421053</v>
+        <v>0.5</v>
       </c>
       <c r="E85" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>20</v>
+      <c r="F85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.5144755941435764</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.1538461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="E86" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>20</v>
+      <c r="F86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.5144755941435764</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.2173913043478261</v>
+        <v>0.5</v>
       </c>
       <c r="E87" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G87" s="1">
-        <v>0.5495110434618941</v>
+        <v>0.5144755941435764</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E88" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G88" s="1">
-        <v>0.5458230175621479</v>
+        <v>0.5144755941435764</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.5351606123345254</v>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
       </c>
       <c r="D90" s="1">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.5716356107660457</v>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.6347826086956523</v>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.7463768115942028</v>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.1306532663316583</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1019108280254777</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.1783567134268537</v>
       </c>
       <c r="E95" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.2137628111273792</v>
       </c>
       <c r="E96" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>20</v>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.2945864845016548</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E97" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E98" s="1">
         <v>0.1783567134268537</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E99" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>20</v>
+      <c r="F99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.4786793619214684</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.08</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E100" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>20</v>
+      <c r="F100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.4651503046856634</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.06976744186046512</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E101" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>20</v>
+      <c r="F101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.4386385799159831</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E102" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>20</v>
+      <c r="F102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.4863421401015828</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E103" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>20</v>
+      <c r="F103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.5551447910994001</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E104" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>20</v>
+      <c r="F104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.6684525906996832</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E105" s="1">
         <v>0.1783567134268537</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>20</v>
+      <c r="F105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.4399572561758487</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4289,7 +4535,7 @@
         <v>137</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4302,7 +4548,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4310,7 +4556,7 @@
         <v>138</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4323,7 +4569,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4333,7 +4579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4479,19 +4725,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.1488673139158576</v>
       </c>
       <c r="E6" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02164328657314629</v>
+        <v>-0.02948939951099611</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4522,19 +4768,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2222222222222222</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="E7" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F7" s="1">
-        <v>0.04386550879536849</v>
+        <v>-0.03694257201271231</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4562,22 +4808,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E8" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F8" s="1">
-        <v>0.07164328657314628</v>
+        <v>-0.03549957056971087</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4605,22 +4851,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1428571428571428</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="E9" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.03549957056971087</v>
+        <v>-0.06443266279394233</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4648,22 +4894,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E10" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.01169004676018706</v>
+        <v>-0.06297209804223833</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4686,6 +4932,350 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.07835671342685371</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.08744762251776281</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.06724560231574261</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.02164328657314629</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.04386550879536849</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.07164328657314628</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.03549957056971087</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.01169004676018706</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4697,7 +5287,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4754,7 +5344,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4797,7 +5387,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4835,6 +5425,350 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.1138405843945957</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.1098635627419222</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1228011578712982</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.09727563234577263</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.08744762251776281</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.06070965460332431</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.08744762251776281</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.05335671342685372</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4846,7 +5780,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4903,7 +5837,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4946,7 +5880,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4984,6 +5918,350 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1280148423005566</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.05034187112629712</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.05044973668266767</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.142156862745098</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.03619985068175569</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1544117647058824</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.02394494872097136</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.02618280038337545</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.0487270837972241</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.1212138562839966</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.119533184015089</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4995,7 +6273,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5052,7 +6330,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5095,7 +6373,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5138,22 +6416,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.1671232876712329</v>
       </c>
       <c r="E6" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.1348784525572885</v>
+        <v>-0.01123342575562084</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5181,22 +6459,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06666666666666667</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="E7" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.1116900467601871</v>
+        <v>-0.04001679247823711</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5224,22 +6502,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="E8" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.07835671342685371</v>
+        <v>-0.0226680906723627</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5267,22 +6545,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1428571428571428</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E9" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.03549957056971087</v>
+        <v>-0.019626554696695</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5310,22 +6588,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E10" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.01169004676018706</v>
+        <v>-0.00188612519155959</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5353,22 +6631,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.01169004676018706</v>
+        <v>-0.03989517496531525</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5396,22 +6674,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E12" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F12" s="1">
-        <v>0.02164328657314629</v>
+        <v>-0.0564054939146586</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5439,22 +6717,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.25</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="E13" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F13" s="1">
-        <v>0.07164328657314628</v>
+        <v>-0.04932445536233759</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5482,22 +6760,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.25</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E14" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F14" s="1">
-        <v>0.07164328657314628</v>
+        <v>-0.1348784525572885</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5525,22 +6803,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E15" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F15" s="1">
-        <v>0.1549766199064796</v>
+        <v>-0.1116900467601871</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5568,22 +6846,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.1671232876712329</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F16" s="1">
-        <v>-0.01123342575562084</v>
+        <v>-0.07835671342685371</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -5611,22 +6889,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E17" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3216432865731463</v>
+        <v>-0.03549957056971087</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -5654,22 +6932,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E18" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F18" s="1">
-        <v>0.3216432865731463</v>
+        <v>-0.01169004676018706</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
@@ -5697,22 +6975,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E19" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F19" s="1">
-        <v>0.3216432865731463</v>
+        <v>-0.01169004676018706</v>
       </c>
       <c r="G19" s="1">
         <f>1/(POWER(B19,1.5))</f>
@@ -5740,22 +7018,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F20" s="1">
-        <v>0.3216432865731463</v>
+        <v>0.02164328657314629</v>
       </c>
       <c r="G20" s="1">
         <f>1/(POWER(B20,1.5))</f>
@@ -5778,6 +7056,307 @@
       </c>
       <c r="L20" s="1">
         <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.07164328657314628</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.07164328657314628</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.1549766199064796</v>
+      </c>
+      <c r="G23" s="1">
+        <f>1/(POWER(B23,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>SQRT((D23-POWER(10,-4))*B23*((1-D23+POWER(10,-4))*B23))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>G23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f>MIN(K23,1-D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.3216432865731463</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1/(POWER(B24,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SQRT((D24-POWER(10,-4))*B24*((1-D24+POWER(10,-4))*B24))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>G24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f>MIN(K24,1-D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3216432865731463</v>
+      </c>
+      <c r="G25" s="1">
+        <f>1/(POWER(B25,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SQRT((D25-POWER(10,-4))*B25*((1-D25+POWER(10,-4))*B25))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>G25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f>MIN(K25,1-D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3216432865731463</v>
+      </c>
+      <c r="G26" s="1">
+        <f>1/(POWER(B26,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SQRT((D26-POWER(10,-4))*B26*((1-D26+POWER(10,-4))*B26))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>G26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(K26,1-D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3216432865731463</v>
+      </c>
+      <c r="G27" s="1">
+        <f>1/(POWER(B27,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>SQRT((D27-POWER(10,-4))*B27*((1-D27+POWER(10,-4))*B27))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f>G27*H27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MIN(K27,1-D27)</f>
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +7368,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5846,7 +7425,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5889,7 +7468,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5932,22 +7511,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.5</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E6" s="3">
         <v>0.1783567134268537</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3216432865731463</v>
+        <v>-0.02046197658474846</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5970,6 +7549,350 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.02451055958069986</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.03903459092097236</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.03592900085886055</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.003461468391328104</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.107357572287432</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2216432865731463</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.4883099532398129</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.3216432865731463</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5981,7 +7904,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6038,7 +7961,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6081,7 +8004,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6119,6 +8042,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.09835671342685372</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1783567134268537</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.1085892715663886</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
